--- a/JAVA_SSR/java_SSR_2/요구사항명세서-메인화면.xlsx
+++ b/JAVA_SSR/java_SSR_2/요구사항명세서-메인화면.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_LJH\project_ssr\JAVA_SSR\java_SSR_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -64,39 +64,9 @@
     <t>관리자</t>
   </si>
   <si>
-    <t>대시보드</t>
-  </si>
-  <si>
     <t>공통</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>이메일 로그인</t>
-  </si>
-  <si>
-    <t>SNS 로그인</t>
-  </si>
-  <si>
-    <t>디자인 컨셉</t>
-  </si>
-  <si>
-    <t>사이트 구성 컨셉</t>
-  </si>
-  <si>
-    <t>웹매거진 형식의 GUI구성과 SNS 기능이 접목된 사이트</t>
-  </si>
-  <si>
-    <t>https://onthelook.co.kr/ 레이아웃 참고</t>
-  </si>
-  <si>
-    <t>서비스 타겟</t>
-  </si>
-  <si>
-    <t>코어타겟 : 패션에 관심이 있는 20대~30대 초반</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -119,10 +89,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴를 클릭하면 분류에 맞는 상품 리스트를 띄워주는 페이지로 이동</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -152,232 +118,6 @@
       </rPr>
       <t>메뉴</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백화점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아울렛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분류에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>띄워주는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -776,10 +516,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>중하단메뉴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -794,191 +530,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>약관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리방침</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>띄워줌</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1387,8 +938,27 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>넣어줌
-결과내</t>
+      <t xml:space="preserve">넣어줌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과내</t>
     </r>
     <r>
       <rPr>
@@ -1435,6 +1005,874 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일치하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력받음</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴를 클릭하면 분류에 맞는 상품 리스트를 띄워주는 페이지로 이동
+[패션의류],[패션잡화],[화장품/미용],[디지털/가전],[가구/인테리어],[출산/육아],[식품],
+[스포츠/레저], [생활/건강], [여가/생활편의],[면세점],[도서]메뉴로 구성됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄워주는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백화점윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아울렛윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스타일윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자이너윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뷰티윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>럭셔리뷰티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], 
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리빙윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>푸드윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키즈윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펫윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>], [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아트윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성됨</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>중하단메뉴
+(주요쇼핑몰,브랜드스토어)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판을 띄워 보여줌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최하단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회사정보</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리방침</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1445,45 +1883,3147 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>정확히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일치하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문장</t>
+      <t>회사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄워줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 메뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드추천</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송/혜택/색상</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘출발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핫딜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혜택을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는
+상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간부 메뉴 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격비교</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매처에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격대를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버페이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백화점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈쇼핑</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백화점이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈쇼핑에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑윈도</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외직구</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랭킹순</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격순</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격순</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일순</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단메뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파워링크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광고를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄워줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오른쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기검색어</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매겨서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기브랜드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매처들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매겨서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나누어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기쇼핑몰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기쇼핑몰</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매겨서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나누어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우측상단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체보기</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한눈에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이게끔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1~100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매겨서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> my</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
     </r>
     <r>
       <rPr>
@@ -1502,46 +5042,344 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>제외하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단어를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력받고
-원하는</t>
+      <t>스토어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아서
+보여줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품을 가격대 별로 분류한 뒤 고객이 원하는 가격대를 클릭 하면 
+해당 상품 리스트를 뽑아줌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매처를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아놓음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
     </r>
     <r>
       <rPr>
@@ -1579,54 +5417,959 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>띄워주고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알맞은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알맞은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분류의
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품목에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알맞은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알맞은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분류의
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해외에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직구로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣어줌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윈도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윈도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매량이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
     </r>
     <r>
       <rPr>
@@ -1660,11 +6403,1275 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>쇼핑몰</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">순차적으로
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숫자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상품들을
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순차적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카테고리별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1~100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑음</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기검색어</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자들이 많이 검색하는 품목들을 모아 통계를 내서 순위를 매김</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기브랜드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매김</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매김</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +7679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1740,6 +7747,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1761,7 +7781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1812,96 +7832,28 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -1915,20 +7867,62 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="double">
         <color rgb="FF000000"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1936,23 +7930,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1961,53 +7944,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2228,10 +8241,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2242,12 +8255,12 @@
     <col min="5" max="5" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2272,7 +8285,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2300,23 +8313,23 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="4"/>
@@ -2325,32 +8338,32 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="30" t="s">
+    <row r="5" spans="1:26" ht="37.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="E5" s="27"/>
+      <c r="F5" s="33">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
@@ -2358,17 +8371,17 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="29" t="s">
+    <row r="6" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="E6" s="27"/>
+      <c r="F6" s="33">
         <v>2</v>
       </c>
       <c r="G6" s="4"/>
@@ -2377,16 +8390,16 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
+      <c r="A7" s="19"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="33">
         <v>1</v>
       </c>
       <c r="G7" s="4"/>
@@ -2395,16 +8408,16 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6">
+      <c r="A8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="33">
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
@@ -2413,16 +8426,14 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6">
+      <c r="A9" s="19"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="33">
         <v>2</v>
       </c>
       <c r="G9" s="4"/>
@@ -2430,19 +8441,17 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33">
         <v>2</v>
       </c>
       <c r="G10" s="4"/>
@@ -2451,16 +8460,16 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10">
+      <c r="A11" s="19"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33">
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
@@ -2468,17 +8477,17 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9">
+    <row r="12" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33">
         <v>1</v>
       </c>
       <c r="G12" s="4"/>
@@ -2487,12 +8496,16 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9">
+      <c r="A13" s="19"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33">
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
@@ -2501,12 +8514,20 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6">
+      <c r="A14" s="19"/>
+      <c r="B14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="G14" s="4"/>
@@ -2514,103 +8535,149 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+    <row r="15" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+    <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="33">
+        <v>1</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+    <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="33">
+        <v>2</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="33">
+        <v>2</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2618,25 +8685,35 @@
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="33">
+        <v>2</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="33">
+        <v>2</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2644,43 +8721,55 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="25"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -2688,42 +8777,55 @@
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="46">
+        <v>1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2731,46 +8833,232 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="47">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="37"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="37"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="37"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="44"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="44"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="44"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="44"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C24:D24"/>
+  <mergeCells count="23">
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B14:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="A5:A21"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
   </mergeCells>
